--- a/static/analysis.xlsx
+++ b/static/analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lacan/Desktop/Flask/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashkan/Desktop/meta-analysis/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="920" windowWidth="24560" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="9460" yWindow="720" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Study</t>
   </si>
@@ -50,38 +50,41 @@
     <t>Group2-sd</t>
   </si>
   <si>
-    <t>Rapport et al. 2002</t>
-  </si>
-  <si>
-    <t>Richard-Lepouriel et al. 2016</t>
-  </si>
-  <si>
-    <t>Mitchell et al. 2012</t>
-  </si>
-  <si>
-    <t>Skirrow and Asherson 2013</t>
-  </si>
-  <si>
-    <t>Surman et al. 2015</t>
-  </si>
-  <si>
-    <t>Miller et al. 2011</t>
-  </si>
-  <si>
-    <t>Bisch et al. 2016</t>
-  </si>
-  <si>
-    <t>Irastorza &amp; Bellon 2016</t>
-  </si>
-  <si>
-    <t>Corbisiero et al. 2017</t>
+    <t>Bisch 2017</t>
+  </si>
+  <si>
+    <t>Corbisiero 2017</t>
+  </si>
+  <si>
+    <t>Irastorza 2016</t>
+  </si>
+  <si>
+    <t>Miller et al., 2015</t>
+  </si>
+  <si>
+    <t>Mitchell et al., 2012</t>
+  </si>
+  <si>
+    <t>Rapport et al., 2012</t>
+  </si>
+  <si>
+    <t>Reimherr et al.</t>
+  </si>
+  <si>
+    <t>Richard-Lepouriel et al., 2015</t>
+  </si>
+  <si>
+    <t>Skirrow &amp; Asherson</t>
+  </si>
+  <si>
+    <t>Surman 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +97,22 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,8 +195,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -206,7 +227,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,22 +544,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
-        <v>22.3</v>
+        <v>10.11</v>
       </c>
       <c r="E2" s="2">
-        <v>1.8</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -544,22 +567,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2">
-        <v>1.4</v>
+        <v>8.9</v>
       </c>
       <c r="E3" s="2">
-        <v>0.57999999999999996</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2">
-        <v>2.2799999999999998</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>0.76</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -567,22 +590,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2">
-        <v>9.2899999999999991</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
-        <v>5.21</v>
+        <v>165</v>
       </c>
       <c r="F4" s="2">
-        <v>16.8</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
-        <v>7.06</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -590,22 +613,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2">
-        <v>1.4</v>
+        <v>12.9</v>
       </c>
       <c r="E5" s="2">
-        <v>0.5</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2">
-        <v>2.6</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
-        <v>0.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -613,22 +636,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2">
-        <v>2.7</v>
+        <v>24.8</v>
       </c>
       <c r="E6" s="2">
-        <v>2.2000000000000002</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>10.86</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2">
-        <v>3.38</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -636,22 +659,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2">
-        <v>2.2200000000000002</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>1.44</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2">
-        <v>2.2400000000000002</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2">
-        <v>1.48</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -659,22 +682,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
-        <v>129.69999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="E8" s="2">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="F8" s="2">
-        <v>110.7</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2">
-        <v>25</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -682,22 +705,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2">
-        <v>14.4</v>
+        <v>7.8</v>
       </c>
       <c r="E9" s="2">
-        <v>5.8</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,22 +728,45 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2">
         <v>121</v>
       </c>
-      <c r="C10" s="2">
-        <v>393</v>
-      </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>24.3</v>
       </c>
       <c r="E10" s="2">
-        <v>1.5</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
-        <v>14.78</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>206</v>
+      </c>
+      <c r="C11" s="2">
+        <v>124</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>123</v>
+      </c>
+      <c r="F11" s="2">
+        <v>104</v>
+      </c>
+      <c r="G11" s="2">
+        <v>21.4</v>
       </c>
     </row>
   </sheetData>

--- a/static/analysis.xlsx
+++ b/static/analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="720" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -59,25 +59,25 @@
     <t>Irastorza 2016</t>
   </si>
   <si>
-    <t>Miller et al., 2015</t>
-  </si>
-  <si>
-    <t>Mitchell et al., 2012</t>
-  </si>
-  <si>
-    <t>Rapport et al., 2012</t>
-  </si>
-  <si>
-    <t>Reimherr et al.</t>
-  </si>
-  <si>
-    <t>Richard-Lepouriel et al., 2015</t>
-  </si>
-  <si>
     <t>Skirrow &amp; Asherson</t>
   </si>
   <si>
     <t>Surman 2015</t>
+  </si>
+  <si>
+    <t>Miller 2015</t>
+  </si>
+  <si>
+    <t>Mitchell 2012</t>
+  </si>
+  <si>
+    <t>Rapport 2012</t>
+  </si>
+  <si>
+    <t>Reimherr 2015</t>
+  </si>
+  <si>
+    <t>Richard-Lepouriel 2015</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>44</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>18</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>28</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>270</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>150</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>41</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>206</v>

--- a/static/analysis.xlsx
+++ b/static/analysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashkan/Desktop/meta-analysis/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashkan/Desktop/python3/venv/meta/meta/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,24 +32,6 @@
     <t>Study</t>
   </si>
   <si>
-    <t>Group1-sample size</t>
-  </si>
-  <si>
-    <t>Group1-mean</t>
-  </si>
-  <si>
-    <t>Group1-sd</t>
-  </si>
-  <si>
-    <t>Group2-sample size</t>
-  </si>
-  <si>
-    <t>Group2-mean</t>
-  </si>
-  <si>
-    <t>Group2-sd</t>
-  </si>
-  <si>
     <t>Bisch 2017</t>
   </si>
   <si>
@@ -78,6 +60,24 @@
   </si>
   <si>
     <t>Richard-Lepouriel 2015</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Mean1</t>
+  </si>
+  <si>
+    <t>Sd1</t>
+  </si>
+  <si>
+    <t>Sd2</t>
+  </si>
+  <si>
+    <t>Mean2</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,27 +521,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>23</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>15</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>158</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>44</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>18</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>28</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>270</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>150</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>41</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>206</v>
